--- a/timetabling_GA/results/HK3_CT01_2025/TKB_Hoc_Ky.xlsx
+++ b/timetabling_GA/results/HK3_CT01_2025/TKB_Hoc_Ky.xlsx
@@ -70,7 +70,7 @@
       <sz val="11"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
@@ -87,6 +87,12 @@
       <patternFill patternType="solid">
         <fgColor rgb="00FFCCCB"/>
         <bgColor rgb="00FFCCCB"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00BDD7EE"/>
+        <bgColor rgb="00BDD7EE"/>
       </patternFill>
     </fill>
   </fills>
@@ -149,7 +155,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
@@ -176,6 +182,9 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -541,7 +550,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J11"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -668,28 +677,14 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -706,12 +701,12 @@
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: TH2
-GV: GV002</t>
+GV: GV007</t>
         </is>
       </c>
       <c r="J9" s="7" t="n"/>
@@ -724,47 +719,36 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
-      <c r="H10" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
         </is>
       </c>
       <c r="I10" s="7" t="n"/>
-      <c r="J10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A11" s="9" t="n"/>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
@@ -772,21 +756,87 @@
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>MH005
+          <t>MH006
 (Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="n"/>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="J11" s="7" t="n"/>
     </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>DH23CS</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>30</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="7" t="n"/>
+      <c r="F12" s="7" t="n"/>
+      <c r="G12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
+(Thực hành)
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
+    </row>
+    <row r="13" ht="60" customHeight="1">
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
+      <c r="B13" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C13" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D13" s="7" t="n"/>
+      <c r="E13" s="7" t="n"/>
+      <c r="F13" s="7" t="n"/>
+      <c r="G13" s="7" t="n"/>
+      <c r="H13" s="7" t="n"/>
+      <c r="I13" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="J13" s="7" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="5">
+  <mergeCells count="6">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A3:G3"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -799,7 +849,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -909,7 +959,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -924,30 +974,16 @@
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
 GV: GV007</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -961,14 +997,21 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -977,7 +1020,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -988,11 +1031,11 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV002</t>
         </is>
       </c>
@@ -1004,83 +1047,80 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT1
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -1090,11 +1130,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -1103,84 +1139,29 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1193,7 +1174,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1303,7 +1284,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1318,30 +1299,16 @@
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
 GV: GV007</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -1355,14 +1322,21 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -1371,7 +1345,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1382,11 +1356,11 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV002</t>
         </is>
       </c>
@@ -1398,83 +1372,80 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT1
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -1484,11 +1455,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -1497,84 +1464,29 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1587,7 +1499,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1697,7 +1609,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -1712,30 +1624,16 @@
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
 GV: GV007</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -1749,14 +1647,21 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -1765,7 +1670,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -1776,11 +1681,11 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV002</t>
         </is>
       </c>
@@ -1792,83 +1697,80 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT1
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -1878,11 +1780,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -1891,84 +1789,29 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1981,7 +1824,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2091,7 +1934,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2106,30 +1949,16 @@
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
 GV: GV007</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -2143,14 +1972,21 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -2159,7 +1995,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2170,11 +2006,11 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV002</t>
         </is>
       </c>
@@ -2186,83 +2022,80 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT1
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -2272,11 +2105,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -2285,84 +2114,29 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2375,7 +2149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2485,7 +2259,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2500,30 +2274,16 @@
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
 GV: GV007</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -2537,14 +2297,21 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -2553,7 +2320,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2564,11 +2331,11 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV002</t>
         </is>
       </c>
@@ -2580,83 +2347,80 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT1
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -2666,11 +2430,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -2679,84 +2439,29 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -2769,7 +2474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2879,7 +2584,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -2894,30 +2599,16 @@
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
 GV: GV007</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -2931,14 +2622,21 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -2947,7 +2645,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -2958,11 +2656,11 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV002</t>
         </is>
       </c>
@@ -2974,83 +2672,80 @@
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT1
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
+      <c r="A12" s="9" t="n"/>
       <c r="B12" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C12" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -3060,11 +2755,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3073,84 +2764,29 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
-    <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
-      <c r="B15" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C15" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
-      <c r="G15" s="7" t="n"/>
-      <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
-      <c r="J15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
-    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="7">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3278,22 +2914,22 @@
       </c>
       <c r="B8" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C8" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+        <v>35</v>
+      </c>
+      <c r="D8" s="7" t="n"/>
+      <c r="E8" s="7" t="n"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
-      <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="7" t="n"/>
       <c r="I8" s="7" t="n"/>
@@ -3302,27 +2938,27 @@
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D9" s="7" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="D9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
       <c r="I9" s="7" t="n"/>
@@ -3336,22 +2972,22 @@
       </c>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+        <v>30</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
       <c r="I10" s="7" t="n"/>
@@ -3372,15 +3008,15 @@
         <v>30</v>
       </c>
       <c r="D11" s="7" t="n"/>
-      <c r="E11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F11" s="7" t="n"/>
+      <c r="E11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
@@ -3398,10 +3034,10 @@
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
-      <c r="F12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: LT3
 GV: GV007</t>
         </is>
@@ -3552,164 +3188,175 @@
       </c>
       <c r="D8" s="7" t="n"/>
       <c r="E8" s="7" t="n"/>
-      <c r="F8" s="7" t="n"/>
+      <c r="F8" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Thực hành)
 Phòng: TH2
 GV: GV002</t>
         </is>
       </c>
-      <c r="J9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Thực hành)
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Thực hành)
 Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+GV: GV007</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
@@ -3720,11 +3367,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -3733,19 +3376,19 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
@@ -3763,15 +3406,15 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="n"/>
@@ -3789,10 +3432,10 @@
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: LT3
 GV: GV007</t>
         </is>
@@ -3804,13 +3447,13 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -3950,160 +3593,164 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Thực hành)
 Phòng: TH2
 GV: GV002</t>
         </is>
       </c>
-      <c r="J9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Thực hành)
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Thực hành)
 Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+GV: GV007</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
@@ -4114,11 +3761,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4127,19 +3770,19 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
@@ -4157,15 +3800,15 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="n"/>
@@ -4183,28 +3826,35 @@
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: LT3
 GV: GV007</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
       <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
+      <c r="I16" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: TH2
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J16" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4217,7 +3867,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4344,161 +3994,165 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Thực hành)
 Phòng: TH2
 GV: GV002</t>
         </is>
       </c>
-      <c r="J9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Thực hành)
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Thực hành)
 Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+GV: GV007</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>S2</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: TH2
 GV: GV002</t>
         </is>
       </c>
@@ -4515,74 +4169,74 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
+      <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
+      <c r="I15" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J15" s="7" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
@@ -4590,15 +4244,40 @@
       <c r="I16" s="7" t="n"/>
       <c r="J16" s="7" t="n"/>
     </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="7" t="n"/>
+    </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -4738,160 +4417,157 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Thực hành)
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Thực hành)
 Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+GV: GV007</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
@@ -4902,11 +4578,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -4915,19 +4587,19 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
@@ -4945,15 +4617,15 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="n"/>
@@ -4971,10 +4643,10 @@
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: LT3
 GV: GV007</t>
         </is>
@@ -4986,13 +4658,13 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5005,7 +4677,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5132,28 +4804,14 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -5170,12 +4828,12 @@
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: TH2
-GV: GV002</t>
+GV: GV007</t>
         </is>
       </c>
       <c r="J9" s="7" t="n"/>
@@ -5194,18 +4852,18 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D10" s="7" t="n"/>
       <c r="E10" s="7" t="n"/>
       <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
+      <c r="H10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
+        </is>
+      </c>
       <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
@@ -5221,30 +4879,37 @@
       </c>
       <c r="D11" s="7" t="n"/>
       <c r="E11" s="7" t="n"/>
-      <c r="F11" s="7" t="n"/>
+      <c r="F11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G11" s="7" t="n"/>
       <c r="H11" s="8" t="inlineStr">
         <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
           <t>MH006
 (Thực hành)
 Phòng: TH2
 GV: GV002</t>
         </is>
       </c>
+      <c r="I11" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -5255,20 +4920,27 @@
       <c r="C12" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D12" s="7" t="n"/>
+      <c r="D12" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E12" s="7" t="n"/>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="H12" s="7" t="n"/>
+      <c r="I12" s="7" t="n"/>
+      <c r="J12" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I12" s="7" t="n"/>
-      <c r="J12" s="7" t="n"/>
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
     </row>
     <row r="13" ht="60" customHeight="1">
       <c r="A13" s="9" t="n"/>
@@ -5281,12 +4953,19 @@
         <v>35</v>
       </c>
       <c r="D13" s="7" t="n"/>
-      <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
+      <c r="E13" s="8" t="inlineStr">
+        <is>
+          <t>MH005
 (Thực hành)
-Phòng: LT1
+Phòng: TH2
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: TH2
 GV: GV002</t>
         </is>
       </c>
@@ -5303,74 +4982,74 @@
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
+      <c r="E14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
       </c>
-      <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
+      <c r="E15" s="7" t="n"/>
       <c r="F15" s="7" t="n"/>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
-      <c r="I15" s="7" t="n"/>
+      <c r="I15" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J15" s="7" t="n"/>
     </row>
     <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
+      <c r="A16" s="6" t="inlineStr">
+        <is>
+          <t>T2</t>
+        </is>
+      </c>
       <c r="B16" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C16" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
         </is>
       </c>
       <c r="G16" s="7" t="n"/>
@@ -5378,15 +5057,41 @@
       <c r="I16" s="7" t="n"/>
       <c r="J16" s="7" t="n"/>
     </row>
+    <row r="17" ht="60" customHeight="1">
+      <c r="A17" s="9" t="n"/>
+      <c r="B17" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C17" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D17" s="7" t="n"/>
+      <c r="E17" s="7" t="n"/>
+      <c r="F17" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="G17" s="7" t="n"/>
+      <c r="H17" s="7" t="n"/>
+      <c r="I17" s="7" t="n"/>
+      <c r="J17" s="7" t="n"/>
+    </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A16:A17"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5526,160 +5231,157 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n"/>
       <c r="J9" s="7" t="n"/>
     </row>
     <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
+      <c r="A10" s="9" t="n"/>
       <c r="B10" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
       <c r="G10" s="7" t="n"/>
       <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Thực hành)
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Thực hành)
 Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+GV: GV007</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
@@ -5690,11 +5392,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -5703,19 +5401,19 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
@@ -5733,15 +5431,15 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="n"/>
@@ -5759,10 +5457,10 @@
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: LT3
 GV: GV007</t>
         </is>
@@ -5774,13 +5472,13 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -5920,160 +5618,164 @@
       <c r="G8" s="7" t="n"/>
       <c r="H8" s="8" t="inlineStr">
         <is>
-          <t>MH006
+          <t>MH005
 (Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+Phòng: TH2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
-      <c r="A9" s="9" t="n"/>
+      <c r="A9" s="6" t="inlineStr">
+        <is>
+          <t>C2</t>
+        </is>
+      </c>
       <c r="B9" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C9" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
       <c r="F9" s="7" t="n"/>
       <c r="G9" s="7" t="n"/>
-      <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
+      <c r="H9" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
+GV: GV007</t>
+        </is>
+      </c>
+      <c r="I9" s="7" t="n"/>
+      <c r="J9" s="7" t="n"/>
+    </row>
+    <row r="10" ht="60" customHeight="1">
+      <c r="A10" s="9" t="n"/>
+      <c r="B10" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C10" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D10" s="7" t="n"/>
+      <c r="E10" s="7" t="n"/>
+      <c r="F10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
+      <c r="G10" s="7" t="n"/>
+      <c r="H10" s="8" t="inlineStr">
+        <is>
+          <t>MH006
 (Thực hành)
 Phòng: TH2
 GV: GV002</t>
         </is>
       </c>
-      <c r="J9" s="7" t="n"/>
-    </row>
-    <row r="10" ht="60" customHeight="1">
-      <c r="A10" s="6" t="inlineStr">
-        <is>
-          <t>C2</t>
-        </is>
-      </c>
-      <c r="B10" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C10" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="I10" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
-      <c r="E10" s="7" t="n"/>
-      <c r="F10" s="7" t="n"/>
-      <c r="G10" s="7" t="n"/>
-      <c r="H10" s="7" t="n"/>
-      <c r="I10" s="7" t="n"/>
       <c r="J10" s="7" t="n"/>
     </row>
     <row r="11" ht="60" customHeight="1">
-      <c r="A11" s="9" t="n"/>
+      <c r="A11" s="6" t="inlineStr">
+        <is>
+          <t>S1</t>
+        </is>
+      </c>
       <c r="B11" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C11" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D11" s="7" t="n"/>
+        <v>30</v>
+      </c>
+      <c r="D11" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV002</t>
+        </is>
+      </c>
       <c r="E11" s="7" t="n"/>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
       <c r="J11" s="8" t="inlineStr">
         <is>
           <t>MH006
 (Thực hành)
+Phòng: TH1
+GV: GV002</t>
+        </is>
+      </c>
+    </row>
+    <row r="12" ht="60" customHeight="1">
+      <c r="A12" s="9" t="n"/>
+      <c r="B12" s="7" t="inlineStr">
+        <is>
+          <t>L01</t>
+        </is>
+      </c>
+      <c r="C12" s="7" t="n">
+        <v>35</v>
+      </c>
+      <c r="D12" s="7" t="n"/>
+      <c r="E12" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Thực hành)
 Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
-    </row>
-    <row r="12" ht="60" customHeight="1">
-      <c r="A12" s="6" t="inlineStr">
-        <is>
-          <t>S2</t>
-        </is>
-      </c>
-      <c r="B12" s="7" t="inlineStr">
-        <is>
-          <t>DH23CS</t>
-        </is>
-      </c>
-      <c r="C12" s="7" t="n">
-        <v>30</v>
-      </c>
-      <c r="D12" s="7" t="n"/>
-      <c r="E12" s="7" t="n"/>
+GV: GV007</t>
+        </is>
+      </c>
       <c r="F12" s="7" t="n"/>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
     <row r="13" ht="60" customHeight="1">
-      <c r="A13" s="9" t="n"/>
+      <c r="A13" s="6" t="inlineStr">
+        <is>
+          <t>T1</t>
+        </is>
+      </c>
       <c r="B13" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C13" s="7" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
+      <c r="F13" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
 Phòng: LT1
 GV: GV002</t>
         </is>
@@ -6084,11 +5786,7 @@
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
-      <c r="A14" s="6" t="inlineStr">
-        <is>
-          <t>T1</t>
-        </is>
-      </c>
+      <c r="A14" s="9" t="n"/>
       <c r="B14" s="7" t="inlineStr">
         <is>
           <t>L01</t>
@@ -6097,19 +5795,19 @@
       <c r="C14" s="7" t="n">
         <v>35</v>
       </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
       <c r="F14" s="7" t="n"/>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
-      <c r="I14" s="7" t="n"/>
+      <c r="I14" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
@@ -6127,15 +5825,15 @@
         <v>30</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="F15" s="7" t="n"/>
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="n"/>
@@ -6153,10 +5851,10 @@
       </c>
       <c r="D16" s="7" t="n"/>
       <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
+      <c r="F16" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
 Phòng: LT3
 GV: GV007</t>
         </is>
@@ -6168,13 +5866,13 @@
     </row>
   </sheetData>
   <mergeCells count="8">
-    <mergeCell ref="A8:A9"/>
     <mergeCell ref="A1:G1"/>
-    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A13:A14"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A11:A12"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -6187,7 +5885,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6297,7 +5995,7 @@
     <row r="8" ht="60" customHeight="1">
       <c r="A8" s="6" t="inlineStr">
         <is>
-          <t>C1</t>
+          <t>C2</t>
         </is>
       </c>
       <c r="B8" s="7" t="inlineStr">
@@ -6312,30 +6010,16 @@
       <c r="E8" s="7" t="n"/>
       <c r="F8" s="7" t="n"/>
       <c r="G8" s="7" t="n"/>
-      <c r="H8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
-GV: GV002</t>
-        </is>
-      </c>
-      <c r="I8" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
+      <c r="H8" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT4
 GV: GV007</t>
         </is>
       </c>
-      <c r="J8" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="I8" s="7" t="n"/>
+      <c r="J8" s="7" t="n"/>
     </row>
     <row r="9" ht="60" customHeight="1">
       <c r="A9" s="9" t="n"/>
@@ -6349,14 +6033,21 @@
       </c>
       <c r="D9" s="7" t="n"/>
       <c r="E9" s="7" t="n"/>
-      <c r="F9" s="7" t="n"/>
+      <c r="F9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G9" s="7" t="n"/>
       <c r="H9" s="7" t="n"/>
-      <c r="I9" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH2
+      <c r="I9" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
 GV: GV002</t>
         </is>
       </c>
@@ -6365,7 +6056,7 @@
     <row r="10" ht="60" customHeight="1">
       <c r="A10" s="6" t="inlineStr">
         <is>
-          <t>C2</t>
+          <t>S1</t>
         </is>
       </c>
       <c r="B10" s="7" t="inlineStr">
@@ -6376,11 +6067,11 @@
       <c r="C10" s="7" t="n">
         <v>30</v>
       </c>
-      <c r="D10" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT2
+      <c r="D10" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV002</t>
         </is>
       </c>
@@ -6402,31 +6093,24 @@
         <v>35</v>
       </c>
       <c r="D11" s="7" t="n"/>
-      <c r="E11" s="7" t="n"/>
+      <c r="E11" s="8" t="inlineStr">
+        <is>
+          <t>MH005
+(Thực hành)
+Phòng: TH2
+GV: GV007</t>
+        </is>
+      </c>
       <c r="F11" s="7" t="n"/>
       <c r="G11" s="7" t="n"/>
-      <c r="H11" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H11" s="7" t="n"/>
       <c r="I11" s="7" t="n"/>
-      <c r="J11" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: TH2
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="J11" s="7" t="n"/>
     </row>
     <row r="12" ht="60" customHeight="1">
       <c r="A12" s="6" t="inlineStr">
         <is>
-          <t>S2</t>
+          <t>T1</t>
         </is>
       </c>
       <c r="B12" s="7" t="inlineStr">
@@ -6439,16 +6123,16 @@
       </c>
       <c r="D12" s="7" t="n"/>
       <c r="E12" s="7" t="n"/>
-      <c r="F12" s="7" t="n"/>
+      <c r="F12" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT1
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G12" s="7" t="n"/>
-      <c r="H12" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: TH3
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="H12" s="7" t="n"/>
       <c r="I12" s="7" t="n"/>
       <c r="J12" s="7" t="n"/>
     </row>
@@ -6464,101 +6148,72 @@
       </c>
       <c r="D13" s="7" t="n"/>
       <c r="E13" s="7" t="n"/>
-      <c r="F13" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+      <c r="F13" s="7" t="n"/>
       <c r="G13" s="7" t="n"/>
       <c r="H13" s="7" t="n"/>
-      <c r="I13" s="7" t="n"/>
+      <c r="I13" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
+GV: GV007</t>
+        </is>
+      </c>
       <c r="J13" s="7" t="n"/>
     </row>
     <row r="14" ht="60" customHeight="1">
       <c r="A14" s="6" t="inlineStr">
         <is>
-          <t>T1</t>
+          <t>T2</t>
         </is>
       </c>
       <c r="B14" s="7" t="inlineStr">
         <is>
-          <t>L01</t>
+          <t>DH23CS</t>
         </is>
       </c>
       <c r="C14" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D14" s="8" t="inlineStr">
-        <is>
-          <t>MH006
-(Thực hành)
-Phòng: LT1
-GV: GV002</t>
-        </is>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="D14" s="7" t="n"/>
       <c r="E14" s="7" t="n"/>
-      <c r="F14" s="7" t="n"/>
+      <c r="F14" s="10" t="inlineStr">
+        <is>
+          <t>MH006
+(Lý thuyết)
+Phòng: LT2
+GV: GV002</t>
+        </is>
+      </c>
       <c r="G14" s="7" t="n"/>
       <c r="H14" s="7" t="n"/>
       <c r="I14" s="7" t="n"/>
       <c r="J14" s="7" t="n"/>
     </row>
     <row r="15" ht="60" customHeight="1">
-      <c r="A15" s="6" t="inlineStr">
-        <is>
-          <t>T2</t>
-        </is>
-      </c>
+      <c r="A15" s="9" t="n"/>
       <c r="B15" s="7" t="inlineStr">
         <is>
-          <t>DH23CS</t>
+          <t>L01</t>
         </is>
       </c>
       <c r="C15" s="7" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="D15" s="7" t="n"/>
-      <c r="E15" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT1
+      <c r="E15" s="7" t="n"/>
+      <c r="F15" s="10" t="inlineStr">
+        <is>
+          <t>MH005
+(Lý thuyết)
+Phòng: LT3
 GV: GV007</t>
         </is>
       </c>
-      <c r="F15" s="7" t="n"/>
       <c r="G15" s="7" t="n"/>
       <c r="H15" s="7" t="n"/>
       <c r="I15" s="7" t="n"/>
       <c r="J15" s="7" t="n"/>
-    </row>
-    <row r="16" ht="60" customHeight="1">
-      <c r="A16" s="9" t="n"/>
-      <c r="B16" s="7" t="inlineStr">
-        <is>
-          <t>L01</t>
-        </is>
-      </c>
-      <c r="C16" s="7" t="n">
-        <v>35</v>
-      </c>
-      <c r="D16" s="7" t="n"/>
-      <c r="E16" s="7" t="n"/>
-      <c r="F16" s="8" t="inlineStr">
-        <is>
-          <t>MH005
-(Thực hành)
-Phòng: LT3
-GV: GV007</t>
-        </is>
-      </c>
-      <c r="G16" s="7" t="n"/>
-      <c r="H16" s="7" t="n"/>
-      <c r="I16" s="7" t="n"/>
-      <c r="J16" s="7" t="n"/>
     </row>
   </sheetData>
   <mergeCells count="8">
@@ -6566,9 +6221,9 @@
     <mergeCell ref="A1:G1"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A15:A16"/>
     <mergeCell ref="A2:G2"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A5:G5"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
